--- a/uploads/purchases.xlsx
+++ b/uploads/purchases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D14B7394-DA64-4F19-89E8-01BE130C0B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B1A73B-8E13-4411-ADBB-189E91232D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -65,13 +65,16 @@
     <t>كيلو</t>
   </si>
   <si>
-    <t>فيصل المطيري</t>
-  </si>
-  <si>
     <t>test2.png</t>
   </si>
   <si>
     <t>test1.jpg</t>
+  </si>
+  <si>
+    <t>payment_source</t>
+  </si>
+  <si>
+    <t>بسام</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,16 +129,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
@@ -438,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,9 +473,10 @@
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
     <col min="7" max="7" width="43.125" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +498,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -492,16 +516,19 @@
         <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -509,8 +536,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -518,8 +546,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -527,8 +556,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -536,8 +566,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -545,8 +576,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -554,8 +586,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -563,8 +596,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -572,8 +606,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -581,8 +616,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -590,8 +626,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -599,8 +636,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -608,8 +646,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -617,8 +656,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -626,8 +666,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -635,8 +676,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -644,8 +686,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -653,8 +696,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -662,8 +706,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -671,8 +716,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -680,8 +726,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -689,8 +736,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -698,8 +746,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -707,8 +756,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -716,8 +766,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -725,8 +776,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -734,8 +786,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -743,8 +796,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -752,8 +806,9 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -761,8 +816,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -770,8 +826,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -779,8 +836,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -788,8 +846,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -797,8 +856,9 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -806,8 +866,9 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -815,8 +876,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -824,8 +886,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -833,8 +896,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -842,8 +906,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -851,8 +916,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -860,8 +926,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -869,6 +936,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/purchases.xlsx
+++ b/uploads/purchases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B1A73B-8E13-4411-ADBB-189E91232D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EFA0340-CF76-4B81-A91B-1A529F4B5B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>بسام</t>
+  </si>
+  <si>
+    <t>عهدة</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -513,7 +516,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>55</v>
+        <v>5000</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -524,8 +527,8 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4">
-        <v>5000</v>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
